--- a/single_digit/Results/EvsF_CNN_GL.xlsx
+++ b/single_digit/Results/EvsF_CNN_GL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Group_Learning\single_digit\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37993253-83A6-400C-9C1C-EEA8E381EF20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA0FA59-7579-43FB-9068-BFC6F3D36B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60F57292-22A5-4A33-BAC1-D93E5267D72A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60F57292-22A5-4A33-BAC1-D93E5267D72A}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>training_acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -412,25 +408,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.17439999999999997</c:v>
+                  <c:v>0.1363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17439999999999997</c:v>
+                  <c:v>0.1363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17439999999999997</c:v>
+                  <c:v>0.1363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17439999999999997</c:v>
+                  <c:v>0.1363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17439999999999997</c:v>
+                  <c:v>0.1363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17439999999999997</c:v>
+                  <c:v>0.1363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17439999999999997</c:v>
+                  <c:v>0.1363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,6 +568,7 @@
         <c:axId val="517260128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -801,10 +798,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>CNN!$D$7:$H$7</c:f>
+              <c:f>CNN!$D$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -819,6 +816,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,10 +880,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>CNN!$D$7:$H$7</c:f>
+              <c:f>CNN!$D$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -895,6 +898,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,25 +1023,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,6 +1183,7 @@
         <c:axId val="517260128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2872,17 +2882,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D86EA0-3C88-40C3-A1C5-042D836277E7}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2898,15 +2911,15 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.188</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2914,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>9.1999999999999998E-2</v>
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2922,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0.184</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2930,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.111</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2959,28 +2972,28 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.105</v>
+        <v>0.106</v>
       </c>
       <c r="D8">
-        <v>0.17439999999999997</v>
+        <v>0.1363</v>
       </c>
       <c r="E8">
-        <v>0.17439999999999997</v>
+        <v>0.1363</v>
       </c>
       <c r="F8">
-        <v>0.17439999999999997</v>
+        <v>0.1363</v>
       </c>
       <c r="G8">
-        <v>0.17439999999999997</v>
+        <v>0.1363</v>
       </c>
       <c r="H8">
-        <v>0.17439999999999997</v>
+        <v>0.1363</v>
       </c>
       <c r="I8">
-        <v>0.17439999999999997</v>
+        <v>0.1363</v>
       </c>
       <c r="J8">
-        <v>0.17439999999999997</v>
+        <v>0.1363</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2988,36 +3001,36 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0.115</v>
+        <v>0.186</v>
       </c>
       <c r="D9">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E9">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G9">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H9">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I9">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0.40400000000000003</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3025,46 +3038,121 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.215</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.18</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <f>AVERAGE(A3:A12)</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <f>AVERAGE(B3:B12)</f>
-        <v>0.17439999999999997</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <f>STDEV(A3:A12)</f>
-        <v>6.9920589878010114E-2</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <f>STDEV(B3:B12)</f>
-        <v>9.0934897347253699E-2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>9</v>
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>0.1</v>
+      </c>
+      <c r="B17">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f>AVERAGE(A3:A22)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(B3:B22)</f>
+        <v>0.1363</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f>STDEV(A3:A22)</f>
+        <v>2.2360679774997901E-2</v>
+      </c>
+      <c r="B24">
+        <f>STDEV(B3:B22)</f>
+        <v>4.0097381460639063E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3749,8 +3837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E7B3FA-A786-498B-86FF-4C69BB3470EF}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
